--- a/Datos_2020_2021/Composiciones 20_21 Ma Jose..xlsx
+++ b/Datos_2020_2021/Composiciones 20_21 Ma Jose..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2022/ANCHOVETA_ZCS/PRIMER_INFORME/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07732F2-6AF4-5F46-A15B-13FC7408C213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A971000-85D2-D14F-B962-A5557F555C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="500" windowWidth="25460" windowHeight="27280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17740" yWindow="500" windowWidth="25460" windowHeight="27280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -6053,7 +6053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D48" sqref="D48:H48"/>
     </sheetView>
   </sheetViews>
@@ -9142,7 +9142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="41" zoomScaleNormal="41" workbookViewId="0"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
